--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc104_I1_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc104_I1_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1436" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2872" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -506,10 +518,10 @@
       <c r="I13">
         <f>((C13-C12)^2+(D13- D12)^2)^.5</f>
       </c>
-      <c r="J13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="2" t="s">
+      <c r="J13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L13" t="n">
@@ -553,28 +565,28 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="2">
+      <c r="A15" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B15" t="s" s="2">
+      <c r="B15" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C15" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D15" t="s" s="2">
+      <c r="C15" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E15" t="s" s="2">
+      <c r="E15" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F15" t="s" s="2">
+      <c r="F15" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G15" t="s" s="2">
+      <c r="G15" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H15" t="s" s="2">
+      <c r="H15" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -599,28 +611,28 @@
       </c>
     </row>
     <row r="17">
-      <c r="B17" t="s" s="2">
+      <c r="B17" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C17" t="s" s="2">
+      <c r="C17" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D17" t="s" s="2">
+      <c r="D17" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E17" t="s" s="2">
+      <c r="E17" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F17" t="s" s="2">
+      <c r="F17" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G17" t="s" s="2">
+      <c r="G17" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H17" t="s" s="2">
+      <c r="H17" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I17" t="s" s="2">
+      <c r="I17" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -824,10 +836,10 @@
       <c r="I24">
         <f>((C24-C23)^2+(D24- D23)^2)^.5</f>
       </c>
-      <c r="J24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24" s="2" t="s">
+      <c r="J24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L24" t="n">
@@ -871,28 +883,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s" s="2">
+      <c r="A26" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B26" t="s" s="2">
+      <c r="B26" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C26" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D26" t="s" s="2">
+      <c r="C26" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D26" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E26" t="s" s="2">
+      <c r="E26" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F26" t="s" s="2">
+      <c r="F26" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G26" t="s" s="2">
+      <c r="G26" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H26" t="s" s="2">
+      <c r="H26" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -917,28 +929,28 @@
       </c>
     </row>
     <row r="28">
-      <c r="B28" t="s" s="2">
+      <c r="B28" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C28" t="s" s="2">
+      <c r="C28" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D28" t="s" s="2">
+      <c r="D28" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E28" t="s" s="2">
+      <c r="E28" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F28" t="s" s="2">
+      <c r="F28" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G28" t="s" s="2">
+      <c r="G28" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H28" t="s" s="2">
+      <c r="H28" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I28" t="s" s="2">
+      <c r="I28" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1026,10 +1038,10 @@
       <c r="I31">
         <f>((C31-C30)^2+(D31- D30)^2)^.5</f>
       </c>
-      <c r="J31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K31" s="2" t="s">
+      <c r="J31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K31" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L31" t="n">
@@ -1073,28 +1085,28 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s" s="2">
+      <c r="A33" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B33" t="s" s="2">
+      <c r="B33" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C33" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D33" t="s" s="2">
+      <c r="C33" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D33" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E33" t="s" s="2">
+      <c r="E33" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F33" t="s" s="2">
+      <c r="F33" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G33" t="s" s="2">
+      <c r="G33" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H33" t="s" s="2">
+      <c r="H33" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1119,28 +1131,28 @@
       </c>
     </row>
     <row r="35">
-      <c r="B35" t="s" s="2">
+      <c r="B35" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C35" t="s" s="2">
+      <c r="C35" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D35" t="s" s="2">
+      <c r="D35" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E35" t="s" s="2">
+      <c r="E35" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F35" t="s" s="2">
+      <c r="F35" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G35" t="s" s="2">
+      <c r="G35" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H35" t="s" s="2">
+      <c r="H35" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I35" t="s" s="2">
+      <c r="I35" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1228,10 +1240,10 @@
       <c r="I38">
         <f>((C38-C37)^2+(D38- D37)^2)^.5</f>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K38" s="2" t="s">
+      <c r="J38" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K38" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L38" t="n">
@@ -1275,28 +1287,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="s" s="2">
+      <c r="A40" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B40" t="s" s="2">
+      <c r="B40" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C40" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D40" t="s" s="2">
+      <c r="C40" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D40" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E40" t="s" s="2">
+      <c r="E40" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F40" t="s" s="2">
+      <c r="F40" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G40" t="s" s="2">
+      <c r="G40" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H40" t="s" s="2">
+      <c r="H40" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1321,28 +1333,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="B42" t="s" s="2">
+      <c r="B42" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C42" t="s" s="2">
+      <c r="C42" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D42" t="s" s="2">
+      <c r="D42" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E42" t="s" s="2">
+      <c r="E42" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F42" t="s" s="2">
+      <c r="F42" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G42" t="s" s="2">
+      <c r="G42" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H42" t="s" s="2">
+      <c r="H42" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I42" t="s" s="2">
+      <c r="I42" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1459,10 +1471,10 @@
       <c r="I46">
         <f>((C46-C45)^2+(D46- D45)^2)^.5</f>
       </c>
-      <c r="J46" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K46" s="2" t="s">
+      <c r="J46" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K46" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L46" t="n">
@@ -1506,28 +1518,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s" s="2">
+      <c r="A48" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B48" t="s" s="2">
+      <c r="B48" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C48" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D48" t="s" s="2">
+      <c r="C48" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D48" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E48" t="s" s="2">
+      <c r="E48" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F48" t="s" s="2">
+      <c r="F48" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G48" t="s" s="2">
+      <c r="G48" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H48" t="s" s="2">
+      <c r="H48" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1552,28 +1564,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="B50" t="s" s="2">
+      <c r="B50" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C50" t="s" s="2">
+      <c r="C50" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D50" t="s" s="2">
+      <c r="D50" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E50" t="s" s="2">
+      <c r="E50" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F50" t="s" s="2">
+      <c r="F50" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G50" t="s" s="2">
+      <c r="G50" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H50" t="s" s="2">
+      <c r="H50" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I50" t="s" s="2">
+      <c r="I50" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1661,10 +1673,10 @@
       <c r="I53">
         <f>((C53-C52)^2+(D53- D52)^2)^.5</f>
       </c>
-      <c r="J53" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K53" s="2" t="s">
+      <c r="J53" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K53" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L53" t="n">
@@ -1708,28 +1720,28 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="s" s="2">
+      <c r="A55" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B55" t="s" s="2">
+      <c r="B55" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C55" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D55" t="s" s="2">
+      <c r="C55" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D55" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E55" t="s" s="2">
+      <c r="E55" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F55" t="s" s="2">
+      <c r="F55" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G55" t="s" s="2">
+      <c r="G55" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H55" t="s" s="2">
+      <c r="H55" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1754,28 +1766,28 @@
       </c>
     </row>
     <row r="57">
-      <c r="B57" t="s" s="2">
+      <c r="B57" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C57" t="s" s="2">
+      <c r="C57" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D57" t="s" s="2">
+      <c r="D57" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E57" t="s" s="2">
+      <c r="E57" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F57" t="s" s="2">
+      <c r="F57" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G57" t="s" s="2">
+      <c r="G57" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H57" t="s" s="2">
+      <c r="H57" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I57" t="s" s="2">
+      <c r="I57" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1921,10 +1933,10 @@
       <c r="I62">
         <f>((C62-C61)^2+(D62- D61)^2)^.5</f>
       </c>
-      <c r="J62" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K62" s="2" t="s">
+      <c r="J62" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K62" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L62" t="n">
@@ -1968,28 +1980,28 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="s" s="2">
+      <c r="A64" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B64" t="s" s="2">
+      <c r="B64" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C64" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D64" t="s" s="2">
+      <c r="C64" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D64" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E64" t="s" s="2">
+      <c r="E64" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F64" t="s" s="2">
+      <c r="F64" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G64" t="s" s="2">
+      <c r="G64" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H64" t="s" s="2">
+      <c r="H64" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2014,28 +2026,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="B66" t="s" s="2">
+      <c r="B66" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C66" t="s" s="2">
+      <c r="C66" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D66" t="s" s="2">
+      <c r="D66" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E66" t="s" s="2">
+      <c r="E66" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F66" t="s" s="2">
+      <c r="F66" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G66" t="s" s="2">
+      <c r="G66" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H66" t="s" s="2">
+      <c r="H66" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I66" t="s" s="2">
+      <c r="I66" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2123,10 +2135,10 @@
       <c r="I69">
         <f>((C69-C68)^2+(D69- D68)^2)^.5</f>
       </c>
-      <c r="J69" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K69" s="2" t="s">
+      <c r="J69" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K69" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L69" t="n">
@@ -2170,28 +2182,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="s" s="2">
+      <c r="A71" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B71" t="s" s="2">
+      <c r="B71" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C71" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D71" t="s" s="2">
+      <c r="C71" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D71" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E71" t="s" s="2">
+      <c r="E71" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F71" t="s" s="2">
+      <c r="F71" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G71" t="s" s="2">
+      <c r="G71" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H71" t="s" s="2">
+      <c r="H71" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2216,28 +2228,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="B73" t="s" s="2">
+      <c r="B73" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C73" t="s" s="2">
+      <c r="C73" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D73" t="s" s="2">
+      <c r="D73" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E73" t="s" s="2">
+      <c r="E73" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F73" t="s" s="2">
+      <c r="F73" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G73" t="s" s="2">
+      <c r="G73" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H73" t="s" s="2">
+      <c r="H73" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I73" t="s" s="2">
+      <c r="I73" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2296,10 +2308,10 @@
       <c r="I75">
         <f>((C75-C74)^2+(D75- D74)^2)^.5</f>
       </c>
-      <c r="J75" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K75" s="2" t="s">
+      <c r="J75" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K75" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L75" t="n">
@@ -2343,28 +2355,28 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="s" s="2">
+      <c r="A77" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B77" t="s" s="2">
+      <c r="B77" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C77" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D77" t="s" s="2">
+      <c r="C77" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D77" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E77" t="s" s="2">
+      <c r="E77" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F77" t="s" s="2">
+      <c r="F77" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G77" t="s" s="2">
+      <c r="G77" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H77" t="s" s="2">
+      <c r="H77" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2389,28 +2401,28 @@
       </c>
     </row>
     <row r="79">
-      <c r="B79" t="s" s="2">
+      <c r="B79" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C79" t="s" s="2">
+      <c r="C79" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D79" t="s" s="2">
+      <c r="D79" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E79" t="s" s="2">
+      <c r="E79" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F79" t="s" s="2">
+      <c r="F79" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G79" t="s" s="2">
+      <c r="G79" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H79" t="s" s="2">
+      <c r="H79" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I79" t="s" s="2">
+      <c r="I79" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2469,10 +2481,10 @@
       <c r="I81">
         <f>((C81-C80)^2+(D81- D80)^2)^.5</f>
       </c>
-      <c r="J81" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K81" s="2" t="s">
+      <c r="J81" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K81" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L81" t="n">
@@ -2516,28 +2528,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="s" s="2">
+      <c r="A83" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B83" t="s" s="2">
+      <c r="B83" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C83" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D83" t="s" s="2">
+      <c r="C83" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D83" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E83" t="s" s="2">
+      <c r="E83" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F83" t="s" s="2">
+      <c r="F83" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G83" t="s" s="2">
+      <c r="G83" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H83" t="s" s="2">
+      <c r="H83" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2562,28 +2574,28 @@
       </c>
     </row>
     <row r="85">
-      <c r="B85" t="s" s="2">
+      <c r="B85" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C85" t="s" s="2">
+      <c r="C85" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D85" t="s" s="2">
+      <c r="D85" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E85" t="s" s="2">
+      <c r="E85" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F85" t="s" s="2">
+      <c r="F85" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G85" t="s" s="2">
+      <c r="G85" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H85" t="s" s="2">
+      <c r="H85" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I85" t="s" s="2">
+      <c r="I85" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2642,10 +2654,10 @@
       <c r="I87">
         <f>((C87-C86)^2+(D87- D86)^2)^.5</f>
       </c>
-      <c r="J87" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K87" s="2" t="s">
+      <c r="J87" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K87" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L87" t="n">
@@ -2689,28 +2701,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="s" s="2">
+      <c r="A89" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B89" t="s" s="2">
+      <c r="B89" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C89" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D89" t="s" s="2">
+      <c r="C89" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D89" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E89" t="s" s="2">
+      <c r="E89" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F89" t="s" s="2">
+      <c r="F89" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G89" t="s" s="2">
+      <c r="G89" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H89" t="s" s="2">
+      <c r="H89" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2735,28 +2747,28 @@
       </c>
     </row>
     <row r="91">
-      <c r="B91" t="s" s="2">
+      <c r="B91" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C91" t="s" s="2">
+      <c r="C91" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D91" t="s" s="2">
+      <c r="D91" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E91" t="s" s="2">
+      <c r="E91" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F91" t="s" s="2">
+      <c r="F91" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G91" t="s" s="2">
+      <c r="G91" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H91" t="s" s="2">
+      <c r="H91" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I91" t="s" s="2">
+      <c r="I91" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2815,10 +2827,10 @@
       <c r="I93">
         <f>((C93-C92)^2+(D93- D92)^2)^.5</f>
       </c>
-      <c r="J93" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K93" s="2" t="s">
+      <c r="J93" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K93" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L93" t="n">
@@ -2862,28 +2874,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="s" s="2">
+      <c r="A95" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B95" t="s" s="2">
+      <c r="B95" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C95" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D95" t="s" s="2">
+      <c r="C95" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D95" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E95" t="s" s="2">
+      <c r="E95" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F95" t="s" s="2">
+      <c r="F95" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G95" t="s" s="2">
+      <c r="G95" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H95" t="s" s="2">
+      <c r="H95" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2908,28 +2920,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="B97" t="s" s="2">
+      <c r="B97" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C97" t="s" s="2">
+      <c r="C97" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D97" t="s" s="2">
+      <c r="D97" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E97" t="s" s="2">
+      <c r="E97" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F97" t="s" s="2">
+      <c r="F97" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G97" t="s" s="2">
+      <c r="G97" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H97" t="s" s="2">
+      <c r="H97" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I97" t="s" s="2">
+      <c r="I97" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3133,10 +3145,10 @@
       <c r="I104">
         <f>((C104-C103)^2+(D104- D103)^2)^.5</f>
       </c>
-      <c r="J104" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K104" s="2" t="s">
+      <c r="J104" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K104" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L104" t="n">
@@ -3180,28 +3192,28 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="s" s="2">
+      <c r="A106" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B106" t="s" s="2">
+      <c r="B106" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C106" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D106" t="s" s="2">
+      <c r="C106" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D106" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E106" t="s" s="2">
+      <c r="E106" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F106" t="s" s="2">
+      <c r="F106" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G106" t="s" s="2">
+      <c r="G106" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H106" t="s" s="2">
+      <c r="H106" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3226,28 +3238,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="B108" t="s" s="2">
+      <c r="B108" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C108" t="s" s="2">
+      <c r="C108" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D108" t="s" s="2">
+      <c r="D108" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E108" t="s" s="2">
+      <c r="E108" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F108" t="s" s="2">
+      <c r="F108" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G108" t="s" s="2">
+      <c r="G108" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H108" t="s" s="2">
+      <c r="H108" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I108" t="s" s="2">
+      <c r="I108" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3422,10 +3434,10 @@
       <c r="I114">
         <f>((C114-C113)^2+(D114- D113)^2)^.5</f>
       </c>
-      <c r="J114" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K114" s="2" t="s">
+      <c r="J114" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K114" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L114" t="n">
@@ -3469,28 +3481,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="s" s="2">
+      <c r="A116" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B116" t="s" s="2">
+      <c r="B116" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C116" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D116" t="s" s="2">
+      <c r="C116" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D116" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E116" t="s" s="2">
+      <c r="E116" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F116" t="s" s="2">
+      <c r="F116" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G116" t="s" s="2">
+      <c r="G116" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H116" t="s" s="2">
+      <c r="H116" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3515,28 +3527,28 @@
       </c>
     </row>
     <row r="118">
-      <c r="B118" t="s" s="2">
+      <c r="B118" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C118" t="s" s="2">
+      <c r="C118" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D118" t="s" s="2">
+      <c r="D118" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E118" t="s" s="2">
+      <c r="E118" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F118" t="s" s="2">
+      <c r="F118" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G118" t="s" s="2">
+      <c r="G118" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H118" t="s" s="2">
+      <c r="H118" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I118" t="s" s="2">
+      <c r="I118" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3653,10 +3665,10 @@
       <c r="I122">
         <f>((C122-C121)^2+(D122- D121)^2)^.5</f>
       </c>
-      <c r="J122" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K122" s="2" t="s">
+      <c r="J122" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K122" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L122" t="n">
@@ -3700,28 +3712,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="s" s="2">
+      <c r="A124" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B124" t="s" s="2">
+      <c r="B124" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C124" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D124" t="s" s="2">
+      <c r="C124" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D124" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E124" t="s" s="2">
+      <c r="E124" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F124" t="s" s="2">
+      <c r="F124" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G124" t="s" s="2">
+      <c r="G124" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H124" t="s" s="2">
+      <c r="H124" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3746,28 +3758,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="B126" t="s" s="2">
+      <c r="B126" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C126" t="s" s="2">
+      <c r="C126" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D126" t="s" s="2">
+      <c r="D126" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E126" t="s" s="2">
+      <c r="E126" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F126" t="s" s="2">
+      <c r="F126" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G126" t="s" s="2">
+      <c r="G126" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H126" t="s" s="2">
+      <c r="H126" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I126" t="s" s="2">
+      <c r="I126" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3884,10 +3896,10 @@
       <c r="I130">
         <f>((C130-C129)^2+(D130- D129)^2)^.5</f>
       </c>
-      <c r="J130" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K130" s="2" t="s">
+      <c r="J130" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K130" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L130" t="n">
@@ -3931,28 +3943,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="s" s="2">
+      <c r="A132" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B132" t="s" s="2">
+      <c r="B132" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C132" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D132" t="s" s="2">
+      <c r="C132" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D132" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E132" t="s" s="2">
+      <c r="E132" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F132" t="s" s="2">
+      <c r="F132" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G132" t="s" s="2">
+      <c r="G132" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H132" t="s" s="2">
+      <c r="H132" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3977,28 +3989,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="B134" t="s" s="2">
+      <c r="B134" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C134" t="s" s="2">
+      <c r="C134" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D134" t="s" s="2">
+      <c r="D134" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E134" t="s" s="2">
+      <c r="E134" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F134" t="s" s="2">
+      <c r="F134" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G134" t="s" s="2">
+      <c r="G134" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H134" t="s" s="2">
+      <c r="H134" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I134" t="s" s="2">
+      <c r="I134" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4086,10 +4098,10 @@
       <c r="I137">
         <f>((C137-C136)^2+(D137- D136)^2)^.5</f>
       </c>
-      <c r="J137" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K137" s="2" t="s">
+      <c r="J137" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K137" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L137" t="n">
@@ -4133,28 +4145,28 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="s" s="2">
+      <c r="A139" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B139" t="s" s="2">
+      <c r="B139" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C139" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D139" t="s" s="2">
+      <c r="C139" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D139" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E139" t="s" s="2">
+      <c r="E139" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F139" t="s" s="2">
+      <c r="F139" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G139" t="s" s="2">
+      <c r="G139" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H139" t="s" s="2">
+      <c r="H139" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4179,28 +4191,28 @@
       </c>
     </row>
     <row r="141">
-      <c r="B141" t="s" s="2">
+      <c r="B141" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C141" t="s" s="2">
+      <c r="C141" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D141" t="s" s="2">
+      <c r="D141" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E141" t="s" s="2">
+      <c r="E141" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F141" t="s" s="2">
+      <c r="F141" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G141" t="s" s="2">
+      <c r="G141" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H141" t="s" s="2">
+      <c r="H141" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I141" t="s" s="2">
+      <c r="I141" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4317,10 +4329,10 @@
       <c r="I145">
         <f>((C145-C144)^2+(D145- D144)^2)^.5</f>
       </c>
-      <c r="J145" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K145" s="2" t="s">
+      <c r="J145" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K145" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L145" t="n">
@@ -4364,28 +4376,28 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="s" s="2">
+      <c r="A147" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B147" t="s" s="2">
+      <c r="B147" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C147" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D147" t="s" s="2">
+      <c r="C147" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D147" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E147" t="s" s="2">
+      <c r="E147" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F147" t="s" s="2">
+      <c r="F147" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G147" t="s" s="2">
+      <c r="G147" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H147" t="s" s="2">
+      <c r="H147" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4410,28 +4422,28 @@
       </c>
     </row>
     <row r="149">
-      <c r="B149" t="s" s="2">
+      <c r="B149" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C149" t="s" s="2">
+      <c r="C149" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D149" t="s" s="2">
+      <c r="D149" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E149" t="s" s="2">
+      <c r="E149" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F149" t="s" s="2">
+      <c r="F149" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G149" t="s" s="2">
+      <c r="G149" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H149" t="s" s="2">
+      <c r="H149" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I149" t="s" s="2">
+      <c r="I149" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4519,10 +4531,10 @@
       <c r="I152">
         <f>((C152-C151)^2+(D152- D151)^2)^.5</f>
       </c>
-      <c r="J152" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K152" s="2" t="s">
+      <c r="J152" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K152" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L152" t="n">
@@ -4566,28 +4578,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="s" s="2">
+      <c r="A154" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B154" t="s" s="2">
+      <c r="B154" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C154" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D154" t="s" s="2">
+      <c r="C154" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D154" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E154" t="s" s="2">
+      <c r="E154" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F154" t="s" s="2">
+      <c r="F154" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G154" t="s" s="2">
+      <c r="G154" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H154" t="s" s="2">
+      <c r="H154" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4612,28 +4624,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="B156" t="s" s="2">
+      <c r="B156" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C156" t="s" s="2">
+      <c r="C156" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D156" t="s" s="2">
+      <c r="D156" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E156" t="s" s="2">
+      <c r="E156" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F156" t="s" s="2">
+      <c r="F156" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G156" t="s" s="2">
+      <c r="G156" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H156" t="s" s="2">
+      <c r="H156" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I156" t="s" s="2">
+      <c r="I156" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4779,10 +4791,10 @@
       <c r="I161">
         <f>((C161-C160)^2+(D161- D160)^2)^.5</f>
       </c>
-      <c r="J161" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K161" s="2" t="s">
+      <c r="J161" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K161" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L161" t="n">
@@ -4826,28 +4838,28 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="s" s="2">
+      <c r="A163" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B163" t="s" s="2">
+      <c r="B163" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C163" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D163" t="s" s="2">
+      <c r="C163" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D163" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E163" t="s" s="2">
+      <c r="E163" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F163" t="s" s="2">
+      <c r="F163" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G163" t="s" s="2">
+      <c r="G163" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H163" t="s" s="2">
+      <c r="H163" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4872,28 +4884,28 @@
       </c>
     </row>
     <row r="165">
-      <c r="B165" t="s" s="2">
+      <c r="B165" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C165" t="s" s="2">
+      <c r="C165" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D165" t="s" s="2">
+      <c r="D165" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E165" t="s" s="2">
+      <c r="E165" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F165" t="s" s="2">
+      <c r="F165" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G165" t="s" s="2">
+      <c r="G165" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H165" t="s" s="2">
+      <c r="H165" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I165" t="s" s="2">
+      <c r="I165" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5039,10 +5051,10 @@
       <c r="I170">
         <f>((C170-C169)^2+(D170- D169)^2)^.5</f>
       </c>
-      <c r="J170" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K170" s="2" t="s">
+      <c r="J170" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K170" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L170" t="n">
@@ -5086,28 +5098,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="s" s="2">
+      <c r="A172" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B172" t="s" s="2">
+      <c r="B172" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C172" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D172" t="s" s="2">
+      <c r="C172" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D172" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E172" t="s" s="2">
+      <c r="E172" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F172" t="s" s="2">
+      <c r="F172" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G172" t="s" s="2">
+      <c r="G172" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H172" t="s" s="2">
+      <c r="H172" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5132,28 +5144,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="B174" t="s" s="2">
+      <c r="B174" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C174" t="s" s="2">
+      <c r="C174" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D174" t="s" s="2">
+      <c r="D174" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E174" t="s" s="2">
+      <c r="E174" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F174" t="s" s="2">
+      <c r="F174" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G174" t="s" s="2">
+      <c r="G174" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H174" t="s" s="2">
+      <c r="H174" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I174" t="s" s="2">
+      <c r="I174" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5241,10 +5253,10 @@
       <c r="I177">
         <f>((C177-C176)^2+(D177- D176)^2)^.5</f>
       </c>
-      <c r="J177" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K177" s="2" t="s">
+      <c r="J177" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K177" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L177" t="n">
@@ -5288,28 +5300,28 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="s" s="2">
+      <c r="A179" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B179" t="s" s="2">
+      <c r="B179" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C179" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D179" t="s" s="2">
+      <c r="C179" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D179" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E179" t="s" s="2">
+      <c r="E179" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F179" t="s" s="2">
+      <c r="F179" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G179" t="s" s="2">
+      <c r="G179" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H179" t="s" s="2">
+      <c r="H179" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5334,28 +5346,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="B181" t="s" s="2">
+      <c r="B181" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C181" t="s" s="2">
+      <c r="C181" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D181" t="s" s="2">
+      <c r="D181" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E181" t="s" s="2">
+      <c r="E181" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F181" t="s" s="2">
+      <c r="F181" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G181" t="s" s="2">
+      <c r="G181" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H181" t="s" s="2">
+      <c r="H181" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I181" t="s" s="2">
+      <c r="I181" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5472,10 +5484,10 @@
       <c r="I185">
         <f>((C185-C184)^2+(D185- D184)^2)^.5</f>
       </c>
-      <c r="J185" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K185" s="2" t="s">
+      <c r="J185" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K185" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L185" t="n">
@@ -5519,28 +5531,28 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="s" s="2">
+      <c r="A187" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B187" t="s" s="2">
+      <c r="B187" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C187" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D187" t="s" s="2">
+      <c r="C187" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D187" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E187" t="s" s="2">
+      <c r="E187" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F187" t="s" s="2">
+      <c r="F187" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G187" t="s" s="2">
+      <c r="G187" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H187" t="s" s="2">
+      <c r="H187" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5565,28 +5577,28 @@
       </c>
     </row>
     <row r="189">
-      <c r="B189" t="s" s="2">
+      <c r="B189" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C189" t="s" s="2">
+      <c r="C189" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D189" t="s" s="2">
+      <c r="D189" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E189" t="s" s="2">
+      <c r="E189" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F189" t="s" s="2">
+      <c r="F189" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G189" t="s" s="2">
+      <c r="G189" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H189" t="s" s="2">
+      <c r="H189" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I189" t="s" s="2">
+      <c r="I189" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5674,10 +5686,10 @@
       <c r="I192">
         <f>((C192-C191)^2+(D192- D191)^2)^.5</f>
       </c>
-      <c r="J192" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K192" s="2" t="s">
+      <c r="J192" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K192" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L192" t="n">
@@ -5721,28 +5733,28 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="s" s="2">
+      <c r="A194" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B194" t="s" s="2">
+      <c r="B194" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C194" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D194" t="s" s="2">
+      <c r="C194" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D194" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E194" t="s" s="2">
+      <c r="E194" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F194" t="s" s="2">
+      <c r="F194" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G194" t="s" s="2">
+      <c r="G194" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H194" t="s" s="2">
+      <c r="H194" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5767,28 +5779,28 @@
       </c>
     </row>
     <row r="196">
-      <c r="B196" t="s" s="2">
+      <c r="B196" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C196" t="s" s="2">
+      <c r="C196" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D196" t="s" s="2">
+      <c r="D196" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E196" t="s" s="2">
+      <c r="E196" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F196" t="s" s="2">
+      <c r="F196" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G196" t="s" s="2">
+      <c r="G196" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H196" t="s" s="2">
+      <c r="H196" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I196" t="s" s="2">
+      <c r="I196" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5905,10 +5917,10 @@
       <c r="I200">
         <f>((C200-C199)^2+(D200- D199)^2)^.5</f>
       </c>
-      <c r="J200" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K200" s="2" t="s">
+      <c r="J200" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K200" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L200" t="n">
@@ -5952,28 +5964,28 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="s" s="2">
+      <c r="A202" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B202" t="s" s="2">
+      <c r="B202" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C202" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D202" t="s" s="2">
+      <c r="C202" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D202" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E202" t="s" s="2">
+      <c r="E202" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F202" t="s" s="2">
+      <c r="F202" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G202" t="s" s="2">
+      <c r="G202" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H202" t="s" s="2">
+      <c r="H202" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5998,28 +6010,28 @@
       </c>
     </row>
     <row r="204">
-      <c r="B204" t="s" s="2">
+      <c r="B204" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C204" t="s" s="2">
+      <c r="C204" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D204" t="s" s="2">
+      <c r="D204" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E204" t="s" s="2">
+      <c r="E204" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F204" t="s" s="2">
+      <c r="F204" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G204" t="s" s="2">
+      <c r="G204" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H204" t="s" s="2">
+      <c r="H204" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I204" t="s" s="2">
+      <c r="I204" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6136,10 +6148,10 @@
       <c r="I208">
         <f>((C208-C207)^2+(D208- D207)^2)^.5</f>
       </c>
-      <c r="J208" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K208" s="2" t="s">
+      <c r="J208" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K208" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L208" t="n">
@@ -6183,28 +6195,28 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="s" s="2">
+      <c r="A210" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B210" t="s" s="2">
+      <c r="B210" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C210" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D210" t="s" s="2">
+      <c r="C210" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D210" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E210" t="s" s="2">
+      <c r="E210" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F210" t="s" s="2">
+      <c r="F210" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G210" t="s" s="2">
+      <c r="G210" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H210" t="s" s="2">
+      <c r="H210" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6229,28 +6241,28 @@
       </c>
     </row>
     <row r="212">
-      <c r="B212" t="s" s="2">
+      <c r="B212" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C212" t="s" s="2">
+      <c r="C212" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D212" t="s" s="2">
+      <c r="D212" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E212" t="s" s="2">
+      <c r="E212" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F212" t="s" s="2">
+      <c r="F212" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G212" t="s" s="2">
+      <c r="G212" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H212" t="s" s="2">
+      <c r="H212" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I212" t="s" s="2">
+      <c r="I212" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6338,10 +6350,10 @@
       <c r="I215">
         <f>((C215-C214)^2+(D215- D214)^2)^.5</f>
       </c>
-      <c r="J215" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K215" s="2" t="s">
+      <c r="J215" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K215" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L215" t="n">
@@ -6385,28 +6397,28 @@
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="s" s="2">
+      <c r="A217" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B217" t="s" s="2">
+      <c r="B217" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C217" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D217" t="s" s="2">
+      <c r="C217" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D217" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E217" t="s" s="2">
+      <c r="E217" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F217" t="s" s="2">
+      <c r="F217" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G217" t="s" s="2">
+      <c r="G217" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H217" t="s" s="2">
+      <c r="H217" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6431,28 +6443,28 @@
       </c>
     </row>
     <row r="219">
-      <c r="B219" t="s" s="2">
+      <c r="B219" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C219" t="s" s="2">
+      <c r="C219" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D219" t="s" s="2">
+      <c r="D219" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E219" t="s" s="2">
+      <c r="E219" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F219" t="s" s="2">
+      <c r="F219" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G219" t="s" s="2">
+      <c r="G219" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H219" t="s" s="2">
+      <c r="H219" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I219" t="s" s="2">
+      <c r="I219" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6598,10 +6610,10 @@
       <c r="I224">
         <f>((C224-C223)^2+(D224- D223)^2)^.5</f>
       </c>
-      <c r="J224" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K224" s="2" t="s">
+      <c r="J224" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K224" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L224" t="n">
@@ -6645,28 +6657,28 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" t="s" s="2">
+      <c r="A226" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B226" t="s" s="2">
+      <c r="B226" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C226" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D226" t="s" s="2">
+      <c r="C226" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D226" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E226" t="s" s="2">
+      <c r="E226" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F226" t="s" s="2">
+      <c r="F226" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G226" t="s" s="2">
+      <c r="G226" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H226" t="s" s="2">
+      <c r="H226" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6691,28 +6703,28 @@
       </c>
     </row>
     <row r="228">
-      <c r="B228" t="s" s="2">
+      <c r="B228" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C228" t="s" s="2">
+      <c r="C228" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D228" t="s" s="2">
+      <c r="D228" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E228" t="s" s="2">
+      <c r="E228" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F228" t="s" s="2">
+      <c r="F228" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G228" t="s" s="2">
+      <c r="G228" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H228" t="s" s="2">
+      <c r="H228" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I228" t="s" s="2">
+      <c r="I228" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6771,10 +6783,10 @@
       <c r="I230">
         <f>((C230-C229)^2+(D230- D229)^2)^.5</f>
       </c>
-      <c r="J230" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K230" s="2" t="s">
+      <c r="J230" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K230" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L230" t="n">
@@ -6818,28 +6830,28 @@
       </c>
     </row>
     <row r="232">
-      <c r="A232" t="s" s="2">
+      <c r="A232" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B232" t="s" s="2">
+      <c r="B232" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C232" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D232" t="s" s="2">
+      <c r="C232" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D232" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E232" t="s" s="2">
+      <c r="E232" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F232" t="s" s="2">
+      <c r="F232" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G232" t="s" s="2">
+      <c r="G232" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H232" t="s" s="2">
+      <c r="H232" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6864,28 +6876,28 @@
       </c>
     </row>
     <row r="234">
-      <c r="B234" t="s" s="2">
+      <c r="B234" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C234" t="s" s="2">
+      <c r="C234" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D234" t="s" s="2">
+      <c r="D234" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E234" t="s" s="2">
+      <c r="E234" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F234" t="s" s="2">
+      <c r="F234" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G234" t="s" s="2">
+      <c r="G234" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H234" t="s" s="2">
+      <c r="H234" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I234" t="s" s="2">
+      <c r="I234" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6973,10 +6985,10 @@
       <c r="I237">
         <f>((C237-C236)^2+(D237- D236)^2)^.5</f>
       </c>
-      <c r="J237" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K237" s="2" t="s">
+      <c r="J237" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K237" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L237" t="n">
@@ -7020,28 +7032,28 @@
       </c>
     </row>
     <row r="239">
-      <c r="A239" t="s" s="2">
+      <c r="A239" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B239" t="s" s="2">
+      <c r="B239" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C239" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D239" t="s" s="2">
+      <c r="C239" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D239" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E239" t="s" s="2">
+      <c r="E239" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F239" t="s" s="2">
+      <c r="F239" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G239" t="s" s="2">
+      <c r="G239" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H239" t="s" s="2">
+      <c r="H239" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7066,28 +7078,28 @@
       </c>
     </row>
     <row r="241">
-      <c r="B241" t="s" s="2">
+      <c r="B241" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C241" t="s" s="2">
+      <c r="C241" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D241" t="s" s="2">
+      <c r="D241" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E241" t="s" s="2">
+      <c r="E241" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F241" t="s" s="2">
+      <c r="F241" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G241" t="s" s="2">
+      <c r="G241" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H241" t="s" s="2">
+      <c r="H241" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I241" t="s" s="2">
+      <c r="I241" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7146,10 +7158,10 @@
       <c r="I243">
         <f>((C243-C242)^2+(D243- D242)^2)^.5</f>
       </c>
-      <c r="J243" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K243" s="2" t="s">
+      <c r="J243" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K243" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L243" t="n">
@@ -7193,28 +7205,28 @@
       </c>
     </row>
     <row r="245">
-      <c r="A245" t="s" s="2">
+      <c r="A245" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B245" t="s" s="2">
+      <c r="B245" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C245" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D245" t="s" s="2">
+      <c r="C245" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D245" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E245" t="s" s="2">
+      <c r="E245" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F245" t="s" s="2">
+      <c r="F245" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G245" t="s" s="2">
+      <c r="G245" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H245" t="s" s="2">
+      <c r="H245" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7239,28 +7251,28 @@
       </c>
     </row>
     <row r="247">
-      <c r="B247" t="s" s="2">
+      <c r="B247" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C247" t="s" s="2">
+      <c r="C247" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D247" t="s" s="2">
+      <c r="D247" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E247" t="s" s="2">
+      <c r="E247" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F247" t="s" s="2">
+      <c r="F247" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G247" t="s" s="2">
+      <c r="G247" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H247" t="s" s="2">
+      <c r="H247" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I247" t="s" s="2">
+      <c r="I247" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7377,10 +7389,10 @@
       <c r="I251">
         <f>((C251-C250)^2+(D251- D250)^2)^.5</f>
       </c>
-      <c r="J251" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K251" s="2" t="s">
+      <c r="J251" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K251" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L251" t="n">
@@ -7424,28 +7436,28 @@
       </c>
     </row>
     <row r="253">
-      <c r="A253" t="s" s="2">
+      <c r="A253" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B253" t="s" s="2">
+      <c r="B253" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C253" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D253" t="s" s="2">
+      <c r="C253" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D253" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E253" t="s" s="2">
+      <c r="E253" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F253" t="s" s="2">
+      <c r="F253" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G253" t="s" s="2">
+      <c r="G253" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H253" t="s" s="2">
+      <c r="H253" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7470,28 +7482,28 @@
       </c>
     </row>
     <row r="255">
-      <c r="B255" t="s" s="2">
+      <c r="B255" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C255" t="s" s="2">
+      <c r="C255" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D255" t="s" s="2">
+      <c r="D255" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E255" t="s" s="2">
+      <c r="E255" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F255" t="s" s="2">
+      <c r="F255" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G255" t="s" s="2">
+      <c r="G255" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H255" t="s" s="2">
+      <c r="H255" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I255" t="s" s="2">
+      <c r="I255" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7550,10 +7562,10 @@
       <c r="I257">
         <f>((C257-C256)^2+(D257- D256)^2)^.5</f>
       </c>
-      <c r="J257" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K257" s="2" t="s">
+      <c r="J257" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K257" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L257" t="n">
@@ -7597,28 +7609,28 @@
       </c>
     </row>
     <row r="259">
-      <c r="A259" t="s" s="2">
+      <c r="A259" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B259" t="s" s="2">
+      <c r="B259" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C259" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D259" t="s" s="2">
+      <c r="C259" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D259" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E259" t="s" s="2">
+      <c r="E259" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F259" t="s" s="2">
+      <c r="F259" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G259" t="s" s="2">
+      <c r="G259" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H259" t="s" s="2">
+      <c r="H259" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7643,28 +7655,28 @@
       </c>
     </row>
     <row r="261">
-      <c r="B261" t="s" s="2">
+      <c r="B261" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C261" t="s" s="2">
+      <c r="C261" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D261" t="s" s="2">
+      <c r="D261" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E261" t="s" s="2">
+      <c r="E261" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F261" t="s" s="2">
+      <c r="F261" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G261" t="s" s="2">
+      <c r="G261" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H261" t="s" s="2">
+      <c r="H261" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I261" t="s" s="2">
+      <c r="I261" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7752,10 +7764,10 @@
       <c r="I264">
         <f>((C264-C263)^2+(D264- D263)^2)^.5</f>
       </c>
-      <c r="J264" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K264" s="2" t="s">
+      <c r="J264" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K264" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L264" t="n">
@@ -7799,28 +7811,28 @@
       </c>
     </row>
     <row r="266">
-      <c r="A266" t="s" s="2">
+      <c r="A266" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B266" t="s" s="2">
+      <c r="B266" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C266" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D266" t="s" s="2">
+      <c r="C266" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D266" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E266" t="s" s="2">
+      <c r="E266" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F266" t="s" s="2">
+      <c r="F266" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G266" t="s" s="2">
+      <c r="G266" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H266" t="s" s="2">
+      <c r="H266" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7845,28 +7857,28 @@
       </c>
     </row>
     <row r="268">
-      <c r="B268" t="s" s="2">
+      <c r="B268" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C268" t="s" s="2">
+      <c r="C268" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D268" t="s" s="2">
+      <c r="D268" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E268" t="s" s="2">
+      <c r="E268" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F268" t="s" s="2">
+      <c r="F268" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G268" t="s" s="2">
+      <c r="G268" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H268" t="s" s="2">
+      <c r="H268" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I268" t="s" s="2">
+      <c r="I268" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7954,10 +7966,10 @@
       <c r="I271">
         <f>((C271-C270)^2+(D271- D270)^2)^.5</f>
       </c>
-      <c r="J271" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K271" s="2" t="s">
+      <c r="J271" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K271" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L271" t="n">
@@ -8001,28 +8013,28 @@
       </c>
     </row>
     <row r="273">
-      <c r="A273" t="s" s="2">
+      <c r="A273" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B273" t="s" s="2">
+      <c r="B273" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C273" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D273" t="s" s="2">
+      <c r="C273" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D273" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E273" t="s" s="2">
+      <c r="E273" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F273" t="s" s="2">
+      <c r="F273" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G273" t="s" s="2">
+      <c r="G273" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H273" t="s" s="2">
+      <c r="H273" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8047,28 +8059,28 @@
       </c>
     </row>
     <row r="275">
-      <c r="B275" t="s" s="2">
+      <c r="B275" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C275" t="s" s="2">
+      <c r="C275" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D275" t="s" s="2">
+      <c r="D275" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E275" t="s" s="2">
+      <c r="E275" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F275" t="s" s="2">
+      <c r="F275" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G275" t="s" s="2">
+      <c r="G275" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H275" t="s" s="2">
+      <c r="H275" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I275" t="s" s="2">
+      <c r="I275" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8127,10 +8139,10 @@
       <c r="I277">
         <f>((C277-C276)^2+(D277- D276)^2)^.5</f>
       </c>
-      <c r="J277" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K277" s="2" t="s">
+      <c r="J277" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K277" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L277" t="n">
@@ -8174,28 +8186,28 @@
       </c>
     </row>
     <row r="279">
-      <c r="A279" t="s" s="2">
+      <c r="A279" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B279" t="s" s="2">
+      <c r="B279" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C279" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D279" t="s" s="2">
+      <c r="C279" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D279" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E279" t="s" s="2">
+      <c r="E279" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F279" t="s" s="2">
+      <c r="F279" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G279" t="s" s="2">
+      <c r="G279" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H279" t="s" s="2">
+      <c r="H279" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8220,28 +8232,28 @@
       </c>
     </row>
     <row r="281">
-      <c r="B281" t="s" s="2">
+      <c r="B281" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C281" t="s" s="2">
+      <c r="C281" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D281" t="s" s="2">
+      <c r="D281" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E281" t="s" s="2">
+      <c r="E281" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F281" t="s" s="2">
+      <c r="F281" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G281" t="s" s="2">
+      <c r="G281" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H281" t="s" s="2">
+      <c r="H281" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I281" t="s" s="2">
+      <c r="I281" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8329,10 +8341,10 @@
       <c r="I284">
         <f>((C284-C283)^2+(D284- D283)^2)^.5</f>
       </c>
-      <c r="J284" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K284" s="2" t="s">
+      <c r="J284" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K284" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L284" t="n">
@@ -8376,28 +8388,28 @@
       </c>
     </row>
     <row r="286">
-      <c r="A286" t="s" s="2">
+      <c r="A286" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B286" t="s" s="2">
+      <c r="B286" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C286" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D286" t="s" s="2">
+      <c r="C286" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D286" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E286" t="s" s="2">
+      <c r="E286" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F286" t="s" s="2">
+      <c r="F286" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G286" t="s" s="2">
+      <c r="G286" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H286" t="s" s="2">
+      <c r="H286" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8422,28 +8434,28 @@
       </c>
     </row>
     <row r="288">
-      <c r="B288" t="s" s="2">
+      <c r="B288" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C288" t="s" s="2">
+      <c r="C288" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D288" t="s" s="2">
+      <c r="D288" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E288" t="s" s="2">
+      <c r="E288" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F288" t="s" s="2">
+      <c r="F288" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G288" t="s" s="2">
+      <c r="G288" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H288" t="s" s="2">
+      <c r="H288" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I288" t="s" s="2">
+      <c r="I288" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8502,10 +8514,10 @@
       <c r="I290">
         <f>((C290-C289)^2+(D290- D289)^2)^.5</f>
       </c>
-      <c r="J290" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K290" s="2" t="s">
+      <c r="J290" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K290" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L290" t="n">
@@ -8549,28 +8561,28 @@
       </c>
     </row>
     <row r="292">
-      <c r="A292" t="s" s="2">
+      <c r="A292" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B292" t="s" s="2">
+      <c r="B292" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C292" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D292" t="s" s="2">
+      <c r="C292" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D292" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E292" t="s" s="2">
+      <c r="E292" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F292" t="s" s="2">
+      <c r="F292" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G292" t="s" s="2">
+      <c r="G292" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H292" t="s" s="2">
+      <c r="H292" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8595,28 +8607,28 @@
       </c>
     </row>
     <row r="294">
-      <c r="B294" t="s" s="2">
+      <c r="B294" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C294" t="s" s="2">
+      <c r="C294" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D294" t="s" s="2">
+      <c r="D294" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E294" t="s" s="2">
+      <c r="E294" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F294" t="s" s="2">
+      <c r="F294" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G294" t="s" s="2">
+      <c r="G294" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H294" t="s" s="2">
+      <c r="H294" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I294" t="s" s="2">
+      <c r="I294" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8675,10 +8687,10 @@
       <c r="I296">
         <f>((C296-C295)^2+(D296- D295)^2)^.5</f>
       </c>
-      <c r="J296" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K296" s="2" t="s">
+      <c r="J296" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K296" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L296" t="n">
